--- a/Analyses on SalesOrders/Assignment Datatype.xlsx
+++ b/Analyses on SalesOrders/Assignment Datatype.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Datatype</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Example</t>
-  </si>
-  <si>
-    <t>Equivalent to</t>
   </si>
   <si>
     <t>Bigint</t>
@@ -608,6 +605,30 @@
       <t> is a hexadecimal digit in the range 0-9 or a-f) 
 10^38 numbers.</t>
     </r>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>String </t>
+  </si>
+  <si>
+    <t>ushort</t>
+  </si>
+  <si>
+    <t>ulong</t>
   </si>
 </sst>
 </file>
@@ -857,7 +878,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -956,7 +983,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Himter" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -968,22 +995,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="3">
-    <tableColumn id="1" name="Datatype" dataDxfId="7"/>
-    <tableColumn id="2" name="Type of Data Held" dataDxfId="6"/>
-    <tableColumn id="3" name="Limits" dataDxfId="5"/>
+    <tableColumn id="1" name="Datatype" dataDxfId="8"/>
+    <tableColumn id="2" name="Type of Data Held" dataDxfId="7"/>
+    <tableColumn id="3" name="Limits" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="D1:F21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Space Used" dataDxfId="2"/>
-    <tableColumn id="2" name="Example" dataDxfId="1"/>
-    <tableColumn id="3" name="Equivalent to" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="D1:G21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Space Used" dataDxfId="3"/>
+    <tableColumn id="2" name="Example" dataDxfId="2"/>
+    <tableColumn id="3" name="Access" dataDxfId="1"/>
+    <tableColumn id="4" name="Visual Studio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1281,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,415 +1343,470 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5">
         <v>9.2233720368547697E+18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
         <v>2147483647</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5">
         <v>32767</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="5">
         <v>255</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E7" s="5">
         <v>123</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>10.050000000000001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>10.5543</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>8.5500000000000007</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
+      <c r="G11" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
+      <c r="G12" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>71</v>
+      <c r="G15" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>77</v>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="I19" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
